--- a/data_exerc/anova.xlsx
+++ b/data_exerc/anova.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardoprimi/Dropbox (Pessoal)/Ciencia_de_dados_stat/ds_stat/data_exerc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7334BFEB-0309-C24D-B23F-2802BCCFFDE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05E4013-BCAE-A045-BFD1-173944912FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18820" yWindow="6820" windowWidth="28040" windowHeight="17360" activeTab="1" xr2:uid="{99078214-1828-F841-8E72-CB5A909CB2F4}"/>
+    <workbookView xWindow="18400" yWindow="4940" windowWidth="28040" windowHeight="17360" activeTab="1" xr2:uid="{99078214-1828-F841-8E72-CB5A909CB2F4}"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>

--- a/data_exerc/anova.xlsx
+++ b/data_exerc/anova.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10926"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ricardoprimi/Dropbox (Pessoal)/Ciencia_de_dados_stat/ds_stat/data_exerc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rprimi/Dropbox (Personal)/Ciencia_de_dados_stat/ds_stat/data_exerc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05E4013-BCAE-A045-BFD1-173944912FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2DA623E-F4A1-424D-9117-E73EBBDC2562}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18400" yWindow="4940" windowWidth="28040" windowHeight="17360" activeTab="1" xr2:uid="{99078214-1828-F841-8E72-CB5A909CB2F4}"/>
+    <workbookView xWindow="30800" yWindow="-1860" windowWidth="31720" windowHeight="18340" activeTab="2" xr2:uid="{99078214-1828-F841-8E72-CB5A909CB2F4}"/>
   </bookViews>
   <sheets>
     <sheet name="data1" sheetId="1" r:id="rId1"/>
     <sheet name="data2" sheetId="2" r:id="rId2"/>
+    <sheet name="calculos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="19">
   <si>
     <t>k1</t>
   </si>
@@ -52,13 +53,58 @@
   </si>
   <si>
     <t>escore</t>
+  </si>
+  <si>
+    <t>Xij</t>
+  </si>
+  <si>
+    <t>mj</t>
+  </si>
+  <si>
+    <t>eij</t>
+  </si>
+  <si>
+    <t>eij = mj - Xij</t>
+  </si>
+  <si>
+    <t>média</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Xij -m</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>mk1</t>
+  </si>
+  <si>
+    <t>mk2</t>
+  </si>
+  <si>
+    <t>mk3</t>
+  </si>
+  <si>
+    <t>wg var</t>
+  </si>
+  <si>
+    <t>media - média geral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -72,13 +118,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,11 +170,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,81 +669,803 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F90126B-1DC0-8246-B94E-A9EFDDB7ABA7}">
-  <dimension ref="B2:D7"/>
+  <dimension ref="B1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScale="161" zoomScaleNormal="161" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="2.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B3" s="1">
         <v>0</v>
       </c>
       <c r="C3" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+        <v>-1</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1">
+        <v>6</v>
+      </c>
+      <c r="G3" s="4">
+        <f>F$9-F3</f>
+        <v>-1</v>
+      </c>
+      <c r="H3" s="1">
+        <v>6</v>
+      </c>
+      <c r="I3" s="4">
+        <f>H$9-H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="1">
         <v>4</v>
       </c>
       <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1">
         <v>8</v>
       </c>
-      <c r="D4" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="G4" s="4">
+        <f t="shared" ref="G4:I7" si="0">F$9-F4</f>
+        <v>-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+      <c r="I4" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1">
+        <v>5</v>
+      </c>
+      <c r="G5" s="4">
+        <f>F$9-F5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="I5" s="4">
+        <f>H$9-H5</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1">
+        <v>4</v>
+      </c>
+      <c r="G6" s="4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" s="1">
         <v>0</v>
       </c>
       <c r="C7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B9" s="2">
+        <f>AVERAGE(B3:B7)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2">
+        <f t="shared" ref="F9:H9" si="1">AVERAGE(F3:F7)</f>
+        <v>5</v>
+      </c>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9974A621-CB76-D245-B1B3-FCF8D33D5CDA}">
+  <dimension ref="A1:N24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="181" zoomScaleNormal="181" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9">
+        <f>AVERAGE($B$3:$B$7)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="9">
+        <f>C3-B3</f>
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <f>_xlfn.VAR.S(B3:B7)</f>
+        <v>3</v>
+      </c>
+      <c r="F3" s="11">
+        <f>B3-B$18</f>
+        <v>-4</v>
+      </c>
+      <c r="G3" s="10">
+        <f>F3*F3</f>
+        <v>16</v>
+      </c>
+      <c r="J3" s="10">
+        <f>_xlfn.VAR.P(B3:B7)</f>
+        <v>2.4</v>
+      </c>
+      <c r="L3" s="11">
+        <f>C3-4</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4</v>
+      </c>
+      <c r="C4" s="9">
+        <f>AVERAGE($B$3:$B$7)</f>
+        <v>1</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:D7" si="0">C4-B4</f>
+        <v>-3</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" ref="F4:F17" si="1">B4-B$18</f>
+        <v>0</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" ref="G4:G17" si="2">F4*F4</f>
+        <v>0</v>
+      </c>
+      <c r="L4" s="11">
+        <f t="shared" ref="L4:L17" si="3">C4-4</f>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0</v>
+      </c>
+      <c r="C5" s="9">
+        <f>AVERAGE($B$3:$B$7)</f>
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F5" s="11">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L5" s="11">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1</v>
+      </c>
+      <c r="C6" s="9">
+        <f>AVERAGE($B$3:$B$7)</f>
+        <v>1</v>
+      </c>
+      <c r="D6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="11">
+        <f t="shared" si="1"/>
+        <v>-3</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="L6" s="11">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0</v>
+      </c>
+      <c r="C7" s="9">
+        <f>AVERAGE($B$3:$B$7)</f>
+        <v>1</v>
+      </c>
+      <c r="D7" s="9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" si="1"/>
+        <v>-4</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L7" s="11">
+        <f t="shared" si="3"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="12">
+        <v>6</v>
+      </c>
+      <c r="C8" s="13">
+        <f>AVERAGE($B$8:$B$12)</f>
+        <v>5</v>
+      </c>
+      <c r="D8" s="13">
+        <f>C8-B8</f>
+        <v>-1</v>
+      </c>
+      <c r="E8" s="14">
+        <f>_xlfn.VAR.S(B8:B12)</f>
+        <v>5</v>
+      </c>
+      <c r="F8" s="15">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J8" s="14">
+        <f>_xlfn.VAR.P(B8:B12)</f>
+        <v>4</v>
+      </c>
+      <c r="L8" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12">
+        <v>8</v>
+      </c>
+      <c r="C9" s="13">
+        <f>AVERAGE($B$8:$B$12)</f>
+        <v>5</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" ref="D9:D17" si="4">C9-B9</f>
+        <v>-3</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="15">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="L9" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="12">
+        <v>5</v>
+      </c>
+      <c r="C10" s="13">
+        <f>AVERAGE($B$8:$B$12)</f>
+        <v>5</v>
+      </c>
+      <c r="D10" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="15">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L10" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="12">
+        <v>4</v>
+      </c>
+      <c r="C11" s="13">
+        <f>AVERAGE($B$8:$B$12)</f>
+        <v>5</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="E11" s="12"/>
+      <c r="F11" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13">
+        <f>AVERAGE($B$8:$B$12)</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="13">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="E12" s="12"/>
+      <c r="F12" s="15">
+        <f t="shared" si="1"/>
+        <v>-2</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="L12" s="15">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="16">
+        <v>6</v>
+      </c>
+      <c r="C13" s="17">
+        <f>AVERAGE($B$13:$B$17)</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <f>_xlfn.VAR.S(B13:B17)</f>
+        <v>3.5</v>
+      </c>
+      <c r="F13" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G13" s="18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J13" s="18">
+        <f>_xlfn.VAR.P(B13:B17)</f>
+        <v>2.8</v>
+      </c>
+      <c r="L13" s="19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="16">
+        <v>5</v>
+      </c>
+      <c r="C14" s="17">
+        <f t="shared" ref="C14:C17" si="5">AVERAGE($B$13:$B$17)</f>
+        <v>6</v>
+      </c>
+      <c r="D14" s="17">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F14" s="19">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="18">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="L14" s="19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16">
+        <v>9</v>
+      </c>
+      <c r="C15" s="17">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D15" s="17">
+        <f t="shared" si="4"/>
+        <v>-3</v>
+      </c>
+      <c r="F15" s="19">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L15" s="19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="16">
+        <v>4</v>
+      </c>
+      <c r="C16" s="17">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="F16" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" s="18" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16">
+        <v>6</v>
+      </c>
+      <c r="C17" s="17">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="D17" s="17">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F17" s="19">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="J17" s="18">
+        <f>SUM(J3:J13)</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="L17" s="19">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="2">
+        <f>AVERAGE(B3:B17)</f>
+        <v>4</v>
+      </c>
+      <c r="C18" s="2">
+        <f>AVERAGE(C3:C17)</f>
+        <v>4</v>
+      </c>
+      <c r="E18" s="7">
+        <f>SUM(E3:E13)/3</f>
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="F18" s="2">
+        <f>AVERAGE(F3:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f>SUM(G3:G17)</f>
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B19" s="3">
+        <f>_xlfn.VAR.P(B3:B17)</f>
+        <v>7.7333333333333334</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="F19" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3">
+        <f>G18/15</f>
+        <v>7.7333333333333334</v>
+      </c>
+      <c r="L19" s="2">
+        <f>_xlfn.VAR.P(L3:L17)</f>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="M19" s="6">
+        <f>_xlfn.VAR.P(D3:D17)</f>
+        <v>3.0666666666666669</v>
+      </c>
+      <c r="N19" s="2">
+        <f>SUM(L19:M19)</f>
+        <v>7.7333333333333343</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B20" s="3">
+        <f>_xlfn.STDEV.P(B3:B17)</f>
+        <v>2.780887148615228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="3">
+        <f>C24/E18</f>
+        <v>9.1304347826086953</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="B24" s="2">
+        <f>_xlfn.VAR.S(B21:B23)</f>
+        <v>7</v>
+      </c>
+      <c r="C24" s="5">
+        <f>B24*5</f>
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>